--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -410,13 +410,13 @@
     <t>S30</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (11.08.2022)</t>
-  </si>
-  <si>
     <t>Helio30 (6GB+128GB)</t>
   </si>
   <si>
     <t>Z45 (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>Symphony Mobile Price List (14.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -838,6 +838,18 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,18 +890,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3233,8 +3233,8 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3249,26 +3249,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3547,25 +3547,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="34">
         <v>1290</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="34">
         <v>1370</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="14">
         <v>10820</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="55" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="29">
         <v>14100</v>
@@ -4488,16 +4488,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="40"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="32" t="s">
         <v>100</v>
       </c>
@@ -4540,20 +4540,20 @@
       <c r="E1" s="19"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E5" s="20" t="s">
@@ -4584,10 +4584,10 @@
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E10" s="20" t="s">

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -416,7 +416,7 @@
     <t>Z45 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (14.08.2022)</t>
+    <t>Symphony Mobile Price List (16.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,14 +461,6 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -517,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,12 +519,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,22 +742,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,28 +760,28 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,19 +790,19 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,17 +815,20 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -856,40 +839,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -961,7 +944,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="357" y="292"/>
+            <a:off x="360" y="303"/>
             <a:ext cx="7" cy="176"/>
           </a:xfrm>
           <a:custGeom>
@@ -3233,8 +3216,8 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3249,1259 +3232,1259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1090</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>1160</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>1080</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>1150</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1270</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>1350</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1160</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>1230</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1190</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>1260</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>1330</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>1410</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1370</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>1450</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>1270</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>1350</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>1500</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>1600</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>1190</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>1260</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>1190</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>1260</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="31">
         <v>1290</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="31">
         <v>1370</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <v>1400</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>1490</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>1290</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>1370</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>1240</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>1330</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>1380</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>1470</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>1280</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>1380</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>0</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>1450</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>1540</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>0</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>1420</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>1510</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>1410</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>1499</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>0</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>1460</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>1550</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>1460</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>1550</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>0</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>1600</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>1700</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>0</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>1400</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>1490</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>1510</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>1600</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>1340</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>1420</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <v>7430</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <v>7990</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>7530</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <v>7990</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>5370</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>5700</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>5650</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>5990</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>5600</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>5990</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>6500</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>6990</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>6580</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>6990</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>7070</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>7499</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>6570</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>6990</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <v>6100</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>6490</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="8">
         <v>6200</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>6590</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="8">
         <v>7430</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <v>7990</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>9300</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <v>9790</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="7">
         <v>10130</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <v>10890</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="8">
         <v>7900</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>8390</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>7980</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>8590</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <v>8850</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>9390</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>9290</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="7">
         <v>9990</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="7">
         <v>10230</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="7">
         <v>10990</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>9290</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>9990</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="8">
         <v>10460</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>11100</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="8">
         <v>11770</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>12490</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="12">
         <v>10820</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="12">
         <v>11490</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="8">
         <v>11770</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>12490</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="8">
         <v>12520</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>13290</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="27">
         <v>14100</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="27">
         <v>14990</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G55" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="42" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="32" t="s">
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="17"/>
+      <c r="H56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4537,79 +4520,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="19"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="5:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>124</v>
       </c>
     </row>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -416,7 +416,7 @@
     <t>Z45 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (16.08.2022)</t>
+    <t>Symphony Mobile Price List (17.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -3217,7 +3217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3668,25 +3668,25 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>1450</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="8">
         <v>1540</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="6">
         <v>0</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3783,25 +3783,25 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>1600</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="8">
         <v>1700</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="6">
         <v>0</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4333,25 +4333,25 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="8">
-        <v>10460</v>
-      </c>
-      <c r="C50" s="8">
-        <v>11100</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="B50" s="12">
+        <v>10560</v>
+      </c>
+      <c r="C50" s="12">
+        <v>11199</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4379,25 +4379,25 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="8">
         <v>10820</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="8">
         <v>11490</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="5" t="s">
         <v>63</v>
       </c>
     </row>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -416,7 +416,7 @@
     <t>Z45 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (17.08.2022)</t>
+    <t>Symphony Mobile Price List (23.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,35 +833,11 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,6 +856,33 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3216,8 +3225,8 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3232,47 +3241,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="42" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3714,48 +3723,48 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="8">
-        <v>1410</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1499</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1590</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="14">
         <v>0</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="8">
-        <v>1460</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1550</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="12">
+        <v>1540</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1630</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4241,25 +4250,25 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="8">
-        <v>8850</v>
-      </c>
-      <c r="C46" s="8">
-        <v>9390</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="B46" s="12">
+        <v>9890</v>
+      </c>
+      <c r="C46" s="12">
+        <v>10490</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4333,25 +4342,25 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="8">
         <v>10560</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="8">
         <v>11199</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4471,17 +4480,17 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="34" t="s">
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="50" t="s">
         <v>100</v>
       </c>
       <c r="H56" s="15"/>
@@ -4523,20 +4532,20 @@
       <c r="E1" s="17"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E5" s="18" t="s">
@@ -4567,10 +4576,10 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E10" s="18" t="s">

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
   <si>
     <t>Model Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>D82</t>
   </si>
   <si>
-    <t>L95</t>
-  </si>
-  <si>
     <t>T92</t>
   </si>
   <si>
@@ -92,12 +89,6 @@
     <t>3000mAh</t>
   </si>
   <si>
-    <t>6.09''</t>
-  </si>
-  <si>
-    <t>3500mAh</t>
-  </si>
-  <si>
     <t>2.8''</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>8MP+8MP</t>
   </si>
   <si>
-    <t>8MP+2MP+13MP</t>
-  </si>
-  <si>
     <t>5MP+2MP</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t>13MP+5MP</t>
   </si>
   <si>
-    <t>5MP+8MP</t>
-  </si>
-  <si>
     <t>L140</t>
   </si>
   <si>
@@ -164,12 +149,6 @@
     <t>13+2MP+AI Sensor+8MP</t>
   </si>
   <si>
-    <t>6.5''</t>
-  </si>
-  <si>
-    <t>8MP+QVGA+5MP</t>
-  </si>
-  <si>
     <t>13+8MP+5MP+2MP</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>1/16 GB</t>
   </si>
   <si>
-    <t>2/16 GB</t>
-  </si>
-  <si>
     <t>3/32 GB</t>
   </si>
   <si>
@@ -200,12 +176,6 @@
     <t>B62</t>
   </si>
   <si>
-    <t>V138</t>
-  </si>
-  <si>
-    <t>2580mAh</t>
-  </si>
-  <si>
     <t>2MP+5MP</t>
   </si>
   <si>
@@ -258,15 +228,6 @@
   </si>
   <si>
     <t>G10+</t>
-  </si>
-  <si>
-    <t>i32</t>
-  </si>
-  <si>
-    <t>i69</t>
-  </si>
-  <si>
-    <t>i99</t>
   </si>
   <si>
     <t>L33</t>
@@ -833,34 +794,19 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,8 +827,23 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,13 +869,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230150</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>250527</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -932,7 +893,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371476" y="12153900"/>
+          <a:off x="371476" y="11058525"/>
           <a:ext cx="5487949" cy="231477"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="230" cy="258"/>
@@ -3222,11 +3183,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N51" sqref="N51"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3241,53 +3202,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8">
         <v>1090</v>
@@ -3296,21 +3257,21 @@
         <v>1160</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B5" s="16">
         <v>1080</v>
@@ -3319,16 +3280,16 @@
         <v>1150</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3342,16 +3303,16 @@
         <v>1350</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3365,21 +3326,21 @@
         <v>1230</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8">
         <v>1190</v>
@@ -3388,16 +3349,16 @@
         <v>1260</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3411,16 +3372,16 @@
         <v>1410</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3434,21 +3395,21 @@
         <v>1450</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B11" s="8">
         <v>1270</v>
@@ -3457,21 +3418,21 @@
         <v>1350</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12" s="8">
         <v>1500</v>
@@ -3480,21 +3441,21 @@
         <v>1600</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8">
         <v>1190</v>
@@ -3503,21 +3464,21 @@
         <v>1260</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B14" s="8">
         <v>1190</v>
@@ -3526,16 +3487,16 @@
         <v>1260</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3549,21 +3510,21 @@
         <v>1370</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B16" s="16">
         <v>1400</v>
@@ -3572,21 +3533,21 @@
         <v>1490</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8">
         <v>1290</v>
@@ -3595,21 +3556,21 @@
         <v>1370</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B18" s="8">
         <v>1240</v>
@@ -3618,21 +3579,21 @@
         <v>1330</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B19" s="8">
         <v>1380</v>
@@ -3641,872 +3602,757 @@
         <v>1470</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B20" s="8">
-        <v>1280</v>
+        <v>1450</v>
       </c>
       <c r="C20" s="8">
-        <v>1380</v>
+        <v>1540</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B21" s="8">
-        <v>1450</v>
+        <v>1420</v>
       </c>
       <c r="C21" s="8">
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1420</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1510</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="A22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1590</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="14">
         <v>0</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>14</v>
+      <c r="G22" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B23" s="12">
-        <v>1500</v>
+        <v>1540</v>
       </c>
       <c r="C23" s="12">
-        <v>1590</v>
+        <v>1630</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F23" s="14">
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="12">
-        <v>1540</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1630</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="A24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1460</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>14</v>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B25" s="8">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="C25" s="8">
-        <v>1550</v>
+        <v>1700</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B26" s="8">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="C26" s="8">
-        <v>1700</v>
+        <v>1490</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B27" s="8">
-        <v>1400</v>
+        <v>1510</v>
       </c>
       <c r="C27" s="8">
-        <v>1490</v>
+        <v>1600</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
       <c r="G27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B28" s="8">
-        <v>1510</v>
+        <v>1340</v>
       </c>
       <c r="C28" s="8">
-        <v>1600</v>
+        <v>1420</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1340</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1420</v>
+        <v>61</v>
+      </c>
+      <c r="B29" s="16">
+        <v>7430</v>
+      </c>
+      <c r="C29" s="16">
+        <v>7990</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B30" s="16">
-        <v>7430</v>
+        <v>7530</v>
       </c>
       <c r="C30" s="16">
         <v>7990</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="16">
-        <v>7530</v>
-      </c>
-      <c r="C31" s="16">
-        <v>7990</v>
+        <v>69</v>
+      </c>
+      <c r="B31" s="8">
+        <v>5370</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5700</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8">
-        <v>5370</v>
+        <v>5650</v>
       </c>
       <c r="C32" s="8">
-        <v>5700</v>
+        <v>5990</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B33" s="8">
-        <v>5650</v>
+        <v>6580</v>
       </c>
       <c r="C33" s="8">
-        <v>5990</v>
+        <v>6990</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8">
-        <v>5600</v>
+        <v>7070</v>
       </c>
       <c r="C34" s="8">
-        <v>5990</v>
+        <v>7499</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B35" s="8">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="C35" s="8">
-        <v>6990</v>
+        <v>6590</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B36" s="8">
-        <v>6580</v>
+        <v>7430</v>
       </c>
       <c r="C36" s="8">
-        <v>6990</v>
+        <v>7990</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="8">
-        <v>7070</v>
-      </c>
-      <c r="C37" s="8">
-        <v>7499</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>67</v>
+      <c r="A37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="7">
+        <v>9300</v>
+      </c>
+      <c r="C37" s="7">
+        <v>9790</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="8">
-        <v>6570</v>
-      </c>
-      <c r="C38" s="8">
-        <v>6990</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>35</v>
+      <c r="A38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="7">
+        <v>10130</v>
+      </c>
+      <c r="C38" s="7">
+        <v>10890</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B39" s="8">
-        <v>6100</v>
+        <v>7900</v>
       </c>
       <c r="C39" s="8">
-        <v>6490</v>
+        <v>8390</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="8">
-        <v>6200</v>
-      </c>
-      <c r="C40" s="8">
-        <v>6590</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>62</v>
+      <c r="A40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="7">
+        <v>7980</v>
+      </c>
+      <c r="C40" s="7">
+        <v>8590</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="8">
-        <v>7430</v>
-      </c>
-      <c r="C41" s="8">
-        <v>7990</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>37</v>
+      <c r="A41" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="12">
+        <v>9890</v>
+      </c>
+      <c r="C41" s="12">
+        <v>10490</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B42" s="7">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="C42" s="7">
-        <v>9790</v>
+        <v>9990</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B43" s="7">
-        <v>10130</v>
+        <v>10230</v>
       </c>
       <c r="C43" s="7">
-        <v>10890</v>
+        <v>10990</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3">
+        <v>9290</v>
+      </c>
+      <c r="C44" s="3">
+        <v>9990</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="8">
+        <v>10560</v>
+      </c>
+      <c r="C45" s="8">
+        <v>11199</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="8">
+        <v>11770</v>
+      </c>
+      <c r="C46" s="8">
+        <v>12490</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="8">
+        <v>10820</v>
+      </c>
+      <c r="C47" s="8">
+        <v>11490</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="8">
+        <v>11770</v>
+      </c>
+      <c r="C48" s="8">
+        <v>12490</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="8">
+        <v>12520</v>
+      </c>
+      <c r="C49" s="8">
+        <v>13290</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="27">
+        <v>14100</v>
+      </c>
+      <c r="C50" s="27">
+        <v>14990</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="8">
-        <v>7900</v>
-      </c>
-      <c r="C44" s="8">
-        <v>8390</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="7">
-        <v>7980</v>
-      </c>
-      <c r="C45" s="7">
-        <v>8590</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="12">
-        <v>9890</v>
-      </c>
-      <c r="C46" s="12">
-        <v>10490</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="7">
-        <v>9290</v>
-      </c>
-      <c r="C47" s="7">
-        <v>9990</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="7">
-        <v>10230</v>
-      </c>
-      <c r="C48" s="7">
-        <v>10990</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="3">
-        <v>9290</v>
-      </c>
-      <c r="C49" s="3">
-        <v>9990</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="8">
-        <v>10560</v>
-      </c>
-      <c r="C50" s="8">
-        <v>11199</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="8">
-        <v>11770</v>
-      </c>
-      <c r="C51" s="8">
-        <v>12490</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="8">
-        <v>10820</v>
-      </c>
-      <c r="C52" s="8">
-        <v>11490</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="8">
-        <v>11770</v>
-      </c>
-      <c r="C53" s="8">
-        <v>12490</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="8">
-        <v>12520</v>
-      </c>
-      <c r="C54" s="8">
-        <v>13290</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="27">
-        <v>14100</v>
-      </c>
-      <c r="C55" s="27">
-        <v>14990</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50" t="s">
+    </row>
+    <row r="51" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="15"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A56" numberStoredAsText="1"/>
+    <ignoredError sqref="A51" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4532,43 +4378,43 @@
       <c r="E1" s="17"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="39"/>
+      <c r="E2" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="37"/>
+      <c r="E4" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E5" s="18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E6" s="20" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E7" s="20" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -4576,33 +4422,33 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="37"/>
+      <c r="E9" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E10" s="18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E11" s="20" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="5:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E12" s="24" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -377,7 +377,7 @@
     <t>Z45 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (23.08.2022)</t>
+    <t>Symphony Mobile Price List (25.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,6 +844,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3186,8 +3189,8 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3843,25 +3846,25 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="16">
-        <v>7530</v>
-      </c>
-      <c r="C30" s="16">
-        <v>7990</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="B30" s="51">
+        <v>8100</v>
+      </c>
+      <c r="C30" s="51">
+        <v>8590</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3935,25 +3938,25 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="8">
-        <v>7070</v>
-      </c>
-      <c r="C34" s="8">
-        <v>7499</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="12">
+        <v>7540</v>
+      </c>
+      <c r="C34" s="12">
+        <v>7990</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4096,25 +4099,25 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="8">
         <v>9890</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="8">
         <v>10490</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="5" t="s">
         <v>43</v>
       </c>
     </row>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
   <si>
     <t>Model Name</t>
   </si>
@@ -377,7 +377,10 @@
     <t>Z45 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (25.08.2022)</t>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>Symphony Mobile Price List (01.09.2022)</t>
   </si>
 </sst>
 </file>
@@ -803,6 +806,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,9 +851,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -872,13 +875,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230150</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>250527</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -896,7 +899,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371476" y="11058525"/>
+          <a:off x="371476" y="11277600"/>
           <a:ext cx="5487949" cy="231477"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="230" cy="258"/>
@@ -3186,11 +3189,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3205,26 +3208,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
@@ -3251,13 +3254,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="B4" s="8">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="8">
-        <v>1160</v>
+        <v>1060</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -3274,13 +3277,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1080</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1150</v>
+        <v>51</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1090</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1160</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -3297,19 +3300,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1270</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1350</v>
+        <v>63</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1080</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1150</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -3320,19 +3323,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>1160</v>
+        <v>1270</v>
       </c>
       <c r="C7" s="8">
-        <v>1230</v>
+        <v>1350</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -3343,13 +3346,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8">
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="C8" s="8">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -3366,19 +3369,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
-        <v>1330</v>
+        <v>1190</v>
       </c>
       <c r="C9" s="8">
-        <v>1410</v>
+        <v>1260</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -3389,19 +3392,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="8">
-        <v>1370</v>
+        <v>1330</v>
       </c>
       <c r="C10" s="8">
-        <v>1450</v>
+        <v>1410</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -3412,13 +3415,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B11" s="8">
-        <v>1270</v>
+        <v>1370</v>
       </c>
       <c r="C11" s="8">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
@@ -3435,36 +3438,36 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8">
-        <v>1500</v>
+        <v>1270</v>
       </c>
       <c r="C12" s="8">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="8">
-        <v>1190</v>
+        <v>1500</v>
       </c>
       <c r="C13" s="8">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
@@ -3476,12 +3479,12 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="8">
         <v>1190</v>
@@ -3503,60 +3506,60 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="31">
-        <v>1290</v>
-      </c>
-      <c r="C15" s="31">
-        <v>1370</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1190</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1260</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="16">
-        <v>1400</v>
-      </c>
-      <c r="C16" s="16">
-        <v>1490</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="31">
+        <v>1290</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1370</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
+      <c r="E16" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1290</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1370</v>
+        <v>70</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1400</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1490</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -3573,13 +3576,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="8">
-        <v>1240</v>
+        <v>1290</v>
       </c>
       <c r="C18" s="8">
-        <v>1330</v>
+        <v>1370</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
@@ -3596,13 +3599,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="8">
-        <v>1380</v>
+        <v>1240</v>
       </c>
       <c r="C19" s="8">
-        <v>1470</v>
+        <v>1330</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -3619,19 +3622,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="8">
-        <v>1450</v>
+        <v>1380</v>
       </c>
       <c r="C20" s="8">
-        <v>1540</v>
+        <v>1470</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -3642,13 +3645,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B21" s="8">
-        <v>1420</v>
+        <v>1450</v>
       </c>
       <c r="C21" s="8">
-        <v>1510</v>
+        <v>1540</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
@@ -3664,43 +3667,43 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1500</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1590</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="A22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1420</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1510</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B23" s="12">
-        <v>1540</v>
+        <v>1500</v>
       </c>
       <c r="C23" s="12">
-        <v>1630</v>
+        <v>1590</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F23" s="14">
         <v>0</v>
@@ -3710,43 +3713,43 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1460</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1550</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="A24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1540</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1630</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="C25" s="8">
-        <v>1700</v>
+        <v>1550</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -3757,34 +3760,36 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B26" s="8">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="C26" s="8">
-        <v>1490</v>
+        <v>1700</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
       <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B27" s="8">
-        <v>1510</v>
+        <v>1400</v>
       </c>
       <c r="C27" s="8">
-        <v>1600</v>
+        <v>1490</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
@@ -3792,28 +3797,26 @@
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B28" s="8">
-        <v>1340</v>
+        <v>1510</v>
       </c>
       <c r="C28" s="8">
-        <v>1420</v>
+        <v>1600</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -3824,105 +3827,105 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1340</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1420</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B30" s="16">
         <v>7430</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C30" s="16">
         <v>7990</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B31" s="37">
         <v>8100</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C31" s="37">
         <v>8590</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="8">
-        <v>5370</v>
-      </c>
-      <c r="C31" s="8">
-        <v>5700</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B32" s="8">
-        <v>5650</v>
+        <v>5370</v>
       </c>
       <c r="C32" s="8">
-        <v>5990</v>
+        <v>5700</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B33" s="8">
-        <v>6580</v>
+        <v>5650</v>
       </c>
       <c r="C33" s="8">
-        <v>6990</v>
+        <v>5990</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>44</v>
@@ -3931,113 +3934,113 @@
         <v>22</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B34" s="12">
-        <v>7540</v>
+        <v>6980</v>
       </c>
       <c r="C34" s="12">
-        <v>7990</v>
+        <v>7400</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="12">
+        <v>7540</v>
+      </c>
+      <c r="C35" s="12">
+        <v>7990</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="8">
-        <v>6200</v>
-      </c>
-      <c r="C35" s="8">
-        <v>6590</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B36" s="8">
-        <v>7430</v>
+        <v>6200</v>
       </c>
       <c r="C36" s="8">
-        <v>7990</v>
+        <v>6590</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="8">
+        <v>7430</v>
+      </c>
+      <c r="C37" s="8">
+        <v>7990</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="7">
-        <v>9300</v>
-      </c>
-      <c r="C37" s="7">
-        <v>9790</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="7">
-        <v>10130</v>
+        <v>9300</v>
       </c>
       <c r="C38" s="7">
-        <v>10890</v>
+        <v>9790</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>28</v>
@@ -4046,102 +4049,102 @@
         <v>29</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="7">
+        <v>10130</v>
+      </c>
+      <c r="C39" s="7">
+        <v>10890</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="8">
-        <v>7900</v>
-      </c>
-      <c r="C39" s="8">
-        <v>8390</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="B40" s="12">
+        <v>8480</v>
+      </c>
+      <c r="C40" s="12">
+        <v>8990</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G40" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B41" s="7">
         <v>7980</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C41" s="7">
         <v>8590</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B42" s="8">
         <v>9890</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C42" s="8">
         <v>10490</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="7">
-        <v>9290</v>
-      </c>
-      <c r="C42" s="7">
-        <v>9990</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -4149,10 +4152,10 @@
         <v>98</v>
       </c>
       <c r="B43" s="7">
-        <v>10230</v>
+        <v>9290</v>
       </c>
       <c r="C43" s="7">
-        <v>10990</v>
+        <v>9990</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>41</v>
@@ -4161,7 +4164,7 @@
         <v>88</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>42</v>
@@ -4169,59 +4172,59 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="7">
+        <v>10230</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10990</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>9290</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="3">
         <v>9990</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="8">
-        <v>10560</v>
-      </c>
-      <c r="C45" s="8">
-        <v>11199</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="8">
-        <v>11770</v>
+        <v>10560</v>
       </c>
       <c r="C46" s="8">
-        <v>12490</v>
+        <v>11199</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>28</v>
@@ -4230,21 +4233,21 @@
         <v>29</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B47" s="8">
-        <v>10820</v>
+        <v>11770</v>
       </c>
       <c r="C47" s="8">
-        <v>11490</v>
+        <v>12490</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>28</v>
@@ -4256,18 +4259,18 @@
         <v>49</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B48" s="8">
-        <v>11770</v>
+        <v>10820</v>
       </c>
       <c r="C48" s="8">
-        <v>12490</v>
+        <v>11490</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>28</v>
@@ -4279,18 +4282,18 @@
         <v>49</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B49" s="8">
-        <v>12520</v>
+        <v>11770</v>
       </c>
       <c r="C49" s="8">
-        <v>13290</v>
+        <v>12490</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>28</v>
@@ -4305,57 +4308,80 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="8">
+        <v>12520</v>
+      </c>
+      <c r="C50" s="8">
+        <v>13290</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B51" s="27">
         <v>14100</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C51" s="27">
         <v>14990</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D51" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E51" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F51" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G51" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="39" t="s">
+    <row r="52" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="42" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="36" t="s">
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H52" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A51" numberStoredAsText="1"/>
+    <ignoredError sqref="A52" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4381,20 +4407,20 @@
       <c r="E1" s="17"/>
     </row>
     <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E5" s="18" t="s">
@@ -4425,10 +4451,10 @@
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E10" s="18" t="s">

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -8,17 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Updated" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
   <si>
     <t>Model Name</t>
   </si>
@@ -332,39 +331,6 @@
     <t>Z55 (4GB+64GB)</t>
   </si>
   <si>
-    <t>New Price</t>
-  </si>
-  <si>
-    <t>Old Price</t>
-  </si>
-  <si>
-    <t>Symphony Smartphone Price Increase</t>
-  </si>
-  <si>
-    <t>RP= 9,400</t>
-  </si>
-  <si>
-    <t>CP= 9,990</t>
-  </si>
-  <si>
-    <t>RP= 10,080</t>
-  </si>
-  <si>
-    <t>CP= 10,699</t>
-  </si>
-  <si>
-    <t>CP= 11,999</t>
-  </si>
-  <si>
-    <t>RP= 11,300</t>
-  </si>
-  <si>
-    <t>RP= 10,350</t>
-  </si>
-  <si>
-    <t>CP= 10,990</t>
-  </si>
-  <si>
     <t>Z55 (4GB+128GB)</t>
   </si>
   <si>
@@ -380,7 +346,13 @@
     <t>A30</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (01.09.2022)</t>
+    <t>Symphony Mobile Price List (06.09.2022)</t>
+  </si>
+  <si>
+    <t>V139</t>
+  </si>
+  <si>
+    <t>2600mAh</t>
   </si>
 </sst>
 </file>
@@ -391,7 +363,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,31 +421,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,18 +449,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -542,114 +485,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -712,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,29 +595,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,17 +619,14 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,42 +634,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -875,13 +677,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230150</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>250527</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -899,7 +701,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371476" y="11277600"/>
+          <a:off x="371476" y="11496675"/>
           <a:ext cx="5487949" cy="231477"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="230" cy="258"/>
@@ -3189,11 +2991,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3208,53 +3010,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8">
         <v>1000</v>
@@ -3529,25 +3331,25 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="22">
         <v>1290</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="22">
         <v>1370</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3690,48 +3492,48 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>1500</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="8">
         <v>1590</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="6">
         <v>0</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="8">
         <v>1540</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="8">
         <v>1630</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3783,7 +3585,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B27" s="8">
         <v>1400</v>
@@ -3872,25 +3674,25 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="16">
         <v>8100</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="16">
         <v>8590</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3917,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
@@ -3940,53 +3742,53 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="8">
         <v>6980</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="8">
         <v>7400</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="8">
         <v>7540</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="8">
         <v>7990</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>92</v>
       </c>
@@ -4009,61 +3811,61 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="12">
+        <v>6600</v>
+      </c>
+      <c r="C37" s="12">
+        <v>7000</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B38" s="8">
         <v>7430</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C38" s="8">
         <v>7990</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B39" s="7">
         <v>9300</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C39" s="7">
         <v>9790</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="7">
-        <v>10130</v>
-      </c>
-      <c r="C39" s="7">
-        <v>10890</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>28</v>
@@ -4072,67 +3874,69 @@
         <v>29</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="8">
+        <v>10130</v>
+      </c>
+      <c r="C40" s="8">
+        <v>10890</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B41" s="8">
         <v>8480</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C41" s="8">
         <v>8990</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G41" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B42" s="8">
         <v>7980</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C42" s="8">
         <v>8590</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="8">
-        <v>9890</v>
-      </c>
-      <c r="C42" s="8">
-        <v>10490</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>28</v>
@@ -4141,44 +3945,46 @@
         <v>29</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="8">
+        <v>9890</v>
+      </c>
+      <c r="C43" s="8">
+        <v>10490</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="7">
-        <v>9290</v>
-      </c>
-      <c r="C43" s="7">
-        <v>9990</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="36"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B44" s="7">
-        <v>10230</v>
+        <v>9290</v>
       </c>
       <c r="C44" s="7">
-        <v>10990</v>
+        <v>9990</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>41</v>
@@ -4187,67 +3993,67 @@
         <v>88</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="7">
+        <v>10230</v>
+      </c>
+      <c r="C45" s="7">
+        <v>10990</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3">
         <v>9290</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="3">
         <v>9990</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B47" s="8">
         <v>10560</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C47" s="8">
         <v>11199</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="8">
-        <v>11770</v>
-      </c>
-      <c r="C47" s="8">
-        <v>12490</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>28</v>
@@ -4256,21 +4062,21 @@
         <v>29</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B48" s="8">
-        <v>10820</v>
+        <v>11770</v>
       </c>
       <c r="C48" s="8">
-        <v>11490</v>
+        <v>12490</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>28</v>
@@ -4282,18 +4088,18 @@
         <v>49</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B49" s="8">
-        <v>11770</v>
+        <v>10820</v>
       </c>
       <c r="C49" s="8">
-        <v>12490</v>
+        <v>11490</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>28</v>
@@ -4305,18 +4111,18 @@
         <v>49</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B50" s="8">
-        <v>12520</v>
+        <v>11770</v>
       </c>
       <c r="C50" s="8">
-        <v>13290</v>
+        <v>12490</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>28</v>
@@ -4331,163 +4137,81 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="27">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="8">
+        <v>12520</v>
+      </c>
+      <c r="C51" s="8">
+        <v>13290</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="18">
         <v>14100</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C52" s="18">
         <v>14990</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D52" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E52" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F52" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G52" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="40" t="s">
+    <row r="53" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="43" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="36" t="s">
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="15"/>
+      <c r="H53" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A52" numberStoredAsText="1"/>
+    <ignoredError sqref="A53" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E5" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E9" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E12" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E9:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -346,13 +346,13 @@
     <t>A30</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (06.09.2022)</t>
-  </si>
-  <si>
     <t>V139</t>
   </si>
   <si>
     <t>2600mAh</t>
+  </si>
+  <si>
+    <t>Symphony Mobile Price List (12.09.2022)</t>
   </si>
 </sst>
 </file>
@@ -628,6 +628,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,7 +653,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2994,8 +2994,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K46:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3010,26 +3010,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -3266,10 +3266,10 @@
         <v>66</v>
       </c>
       <c r="B13" s="8">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C13" s="8">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="12">
         <v>6600</v>
@@ -3825,7 +3825,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>46</v>
@@ -3902,7 +3902,7 @@
       <c r="G40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
@@ -3926,7 +3926,7 @@
       <c r="G41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
@@ -3950,7 +3950,7 @@
       <c r="G42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -3974,7 +3974,7 @@
       <c r="G43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="36"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
@@ -4184,16 +4184,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="27" t="s">
         <v>87</v>
       </c>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -352,7 +352,7 @@
     <t>2600mAh</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (12.09.2022)</t>
+    <t>Symphony Mobile Price List (17.09.2022)</t>
   </si>
 </sst>
 </file>
@@ -2994,8 +2994,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K46:K47"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3262,25 +3262,25 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <v>1600</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="12">
         <v>1700</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3812,27 +3812,28 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="8">
         <v>6600</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="8">
         <v>7000</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -2991,11 +2991,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>84</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>54</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>92</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>109</v>
       </c>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>78</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>79</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>80</v>
       </c>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>81</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>83</v>
       </c>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>98</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>98</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -4045,8 +4045,14 @@
       <c r="G46" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J46" s="1">
+        <v>20565</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
@@ -4068,8 +4074,11 @@
       <c r="G47" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="1">
+        <v>21499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>101</v>
       </c>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -352,7 +352,7 @@
     <t>2600mAh</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (17.09.2022)</t>
+    <t>Symphony Mobile Price List (28.09.2022)</t>
   </si>
 </sst>
 </file>
@@ -595,18 +595,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,6 +640,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2991,11 +2991,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3010,47 +3010,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3331,25 +3331,25 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="18">
         <v>1290</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="18">
         <v>1370</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>84</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>54</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>92</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>109</v>
       </c>
@@ -3833,9 +3833,9 @@
       <c r="G37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>78</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>79</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>80</v>
       </c>
@@ -3903,9 +3903,9 @@
       <c r="G40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>81</v>
       </c>
@@ -3927,9 +3927,9 @@
       <c r="G41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
@@ -3951,9 +3951,9 @@
       <c r="G42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>83</v>
       </c>
@@ -3975,9 +3975,9 @@
       <c r="G43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>98</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>98</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -4045,14 +4045,8 @@
       <c r="G46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="1">
-        <v>20565</v>
-      </c>
-      <c r="K46" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
@@ -4074,11 +4068,8 @@
       <c r="G47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="1">
-        <v>21499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>101</v>
       </c>
@@ -4171,40 +4162,40 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="18">
-        <v>14100</v>
-      </c>
-      <c r="C52" s="18">
-        <v>14990</v>
-      </c>
-      <c r="D52" s="19" t="s">
+      <c r="B52" s="34">
+        <v>15560</v>
+      </c>
+      <c r="C52" s="34">
+        <v>16499</v>
+      </c>
+      <c r="D52" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34" t="s">
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="27" t="s">
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="23" t="s">
         <v>87</v>
       </c>
       <c r="H53" s="15"/>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -352,7 +352,7 @@
     <t>2600mAh</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (28.09.2022)</t>
+    <t>Symphony Mobile Price List (29.09.2022)</t>
   </si>
 </sst>
 </file>
@@ -617,6 +617,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,18 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2995,7 +2995,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3010,26 +3010,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
@@ -3285,25 +3285,25 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="8">
-        <v>1190</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1260</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="12">
+        <v>1250</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1330</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="14">
         <v>0</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4162,39 +4162,39 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="26">
         <v>15560</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="26">
         <v>16499</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="27" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="23" t="s">
         <v>87</v>
       </c>

--- a/2022/Price List/Symphony Price List  10.08.2022.xlsx
+++ b/2022/Price List/Symphony Price List  10.08.2022.xlsx
@@ -2995,7 +2995,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
